--- a/stock_predictor_ai/data/company_sentiment_ready/PYPL_sentiment.xlsx
+++ b/stock_predictor_ai/data/company_sentiment_ready/PYPL_sentiment.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B2509"/>
+  <dimension ref="A1:B2566"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -20513,6 +20513,462 @@
         <v>0</v>
       </c>
     </row>
+    <row r="2510">
+      <c r="A2510" s="2" t="n">
+        <v>45833</v>
+      </c>
+      <c r="B2510" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2511">
+      <c r="A2511" s="2" t="n">
+        <v>45834</v>
+      </c>
+      <c r="B2511" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2512">
+      <c r="A2512" s="2" t="n">
+        <v>45835</v>
+      </c>
+      <c r="B2512" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2513">
+      <c r="A2513" s="2" t="n">
+        <v>45838</v>
+      </c>
+      <c r="B2513" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2514">
+      <c r="A2514" s="2" t="n">
+        <v>45839</v>
+      </c>
+      <c r="B2514" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2515">
+      <c r="A2515" s="2" t="n">
+        <v>45840</v>
+      </c>
+      <c r="B2515" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2516">
+      <c r="A2516" s="2" t="n">
+        <v>45841</v>
+      </c>
+      <c r="B2516" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2517">
+      <c r="A2517" s="2" t="n">
+        <v>45845</v>
+      </c>
+      <c r="B2517" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2518">
+      <c r="A2518" s="2" t="n">
+        <v>45846</v>
+      </c>
+      <c r="B2518" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2519">
+      <c r="A2519" s="2" t="n">
+        <v>45847</v>
+      </c>
+      <c r="B2519" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2520">
+      <c r="A2520" s="2" t="n">
+        <v>45848</v>
+      </c>
+      <c r="B2520" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2521">
+      <c r="A2521" s="2" t="n">
+        <v>45849</v>
+      </c>
+      <c r="B2521" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2522">
+      <c r="A2522" s="2" t="n">
+        <v>45852</v>
+      </c>
+      <c r="B2522" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2523">
+      <c r="A2523" s="2" t="n">
+        <v>45853</v>
+      </c>
+      <c r="B2523" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2524">
+      <c r="A2524" s="2" t="n">
+        <v>45854</v>
+      </c>
+      <c r="B2524" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2525">
+      <c r="A2525" s="2" t="n">
+        <v>45855</v>
+      </c>
+      <c r="B2525" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2526">
+      <c r="A2526" s="2" t="n">
+        <v>45856</v>
+      </c>
+      <c r="B2526" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2527">
+      <c r="A2527" s="2" t="n">
+        <v>45859</v>
+      </c>
+      <c r="B2527" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2528">
+      <c r="A2528" s="2" t="n">
+        <v>45860</v>
+      </c>
+      <c r="B2528" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2529">
+      <c r="A2529" s="2" t="n">
+        <v>45861</v>
+      </c>
+      <c r="B2529" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2530">
+      <c r="A2530" s="2" t="n">
+        <v>45862</v>
+      </c>
+      <c r="B2530" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2531">
+      <c r="A2531" s="2" t="n">
+        <v>45863</v>
+      </c>
+      <c r="B2531" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2532">
+      <c r="A2532" s="2" t="n">
+        <v>45866</v>
+      </c>
+      <c r="B2532" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2533">
+      <c r="A2533" s="2" t="n">
+        <v>45867</v>
+      </c>
+      <c r="B2533" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2534">
+      <c r="A2534" s="2" t="n">
+        <v>45868</v>
+      </c>
+      <c r="B2534" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2535">
+      <c r="A2535" s="2" t="n">
+        <v>45869</v>
+      </c>
+      <c r="B2535" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2536">
+      <c r="A2536" s="2" t="n">
+        <v>45870</v>
+      </c>
+      <c r="B2536" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2537">
+      <c r="A2537" s="2" t="n">
+        <v>45873</v>
+      </c>
+      <c r="B2537" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2538">
+      <c r="A2538" s="2" t="n">
+        <v>45874</v>
+      </c>
+      <c r="B2538" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2539">
+      <c r="A2539" s="2" t="n">
+        <v>45875</v>
+      </c>
+      <c r="B2539" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2540">
+      <c r="A2540" s="2" t="n">
+        <v>45876</v>
+      </c>
+      <c r="B2540" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2541">
+      <c r="A2541" s="2" t="n">
+        <v>45877</v>
+      </c>
+      <c r="B2541" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2542">
+      <c r="A2542" s="2" t="n">
+        <v>45880</v>
+      </c>
+      <c r="B2542" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2543">
+      <c r="A2543" s="2" t="n">
+        <v>45881</v>
+      </c>
+      <c r="B2543" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2544">
+      <c r="A2544" s="2" t="n">
+        <v>45882</v>
+      </c>
+      <c r="B2544" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2545">
+      <c r="A2545" s="2" t="n">
+        <v>45883</v>
+      </c>
+      <c r="B2545" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2546">
+      <c r="A2546" s="2" t="n">
+        <v>45884</v>
+      </c>
+      <c r="B2546" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2547">
+      <c r="A2547" s="2" t="n">
+        <v>45887</v>
+      </c>
+      <c r="B2547" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2548">
+      <c r="A2548" s="2" t="n">
+        <v>45888</v>
+      </c>
+      <c r="B2548" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2549">
+      <c r="A2549" s="2" t="n">
+        <v>45889</v>
+      </c>
+      <c r="B2549" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2550">
+      <c r="A2550" s="2" t="n">
+        <v>45890</v>
+      </c>
+      <c r="B2550" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2551">
+      <c r="A2551" s="2" t="n">
+        <v>45891</v>
+      </c>
+      <c r="B2551" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2552">
+      <c r="A2552" s="2" t="n">
+        <v>45894</v>
+      </c>
+      <c r="B2552" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2553">
+      <c r="A2553" s="2" t="n">
+        <v>45895</v>
+      </c>
+      <c r="B2553" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2554">
+      <c r="A2554" s="2" t="n">
+        <v>45896</v>
+      </c>
+      <c r="B2554" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2555">
+      <c r="A2555" s="2" t="n">
+        <v>45897</v>
+      </c>
+      <c r="B2555" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2556">
+      <c r="A2556" s="2" t="n">
+        <v>45898</v>
+      </c>
+      <c r="B2556" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2557">
+      <c r="A2557" s="2" t="n">
+        <v>45902</v>
+      </c>
+      <c r="B2557" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2558">
+      <c r="A2558" s="2" t="n">
+        <v>45903</v>
+      </c>
+      <c r="B2558" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2559">
+      <c r="A2559" s="2" t="n">
+        <v>45904</v>
+      </c>
+      <c r="B2559" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2560">
+      <c r="A2560" s="2" t="n">
+        <v>45905</v>
+      </c>
+      <c r="B2560" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2561">
+      <c r="A2561" s="2" t="n">
+        <v>45908</v>
+      </c>
+      <c r="B2561" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2562">
+      <c r="A2562" s="2" t="n">
+        <v>45909</v>
+      </c>
+      <c r="B2562" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2563">
+      <c r="A2563" s="2" t="n">
+        <v>45910</v>
+      </c>
+      <c r="B2563" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2564">
+      <c r="A2564" s="2" t="n">
+        <v>45911</v>
+      </c>
+      <c r="B2564" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2565">
+      <c r="A2565" s="2" t="n">
+        <v>45912</v>
+      </c>
+      <c r="B2565" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2566">
+      <c r="A2566" s="2" t="n">
+        <v>45915</v>
+      </c>
+      <c r="B2566" t="n">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
